--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,89</t>
+          <t>4,21; 13,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,52</t>
+          <t>2,27; 11,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 46,89</t>
+          <t>12,72; 47,59</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 41,87</t>
+          <t>7,14; 41,23</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,76</t>
+          <t>0,92; 5,78</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,95</t>
+          <t>-1,47; 2,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 38,03</t>
+          <t>5,23; 37,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 28,08</t>
+          <t>-11,64; 29,44</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,54</t>
+          <t>-6,12; 1,73</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,71</t>
+          <t>-3,19; 2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 16,05</t>
+          <t>-45,9; 20,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 38,61</t>
+          <t>-30,58; 36,4</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,89</t>
+          <t>2,69; 6,97</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,01</t>
+          <t>0,89; 4,92</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 39,46</t>
+          <t>13,49; 39,24</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 38,87</t>
+          <t>7,0; 39,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -541,7 +541,7 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,21; 13,45</t>
+          <t>4,29; 13,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,72; 47,59</t>
+          <t>13,4; 49,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,78</t>
+          <t>0,85; 5,77</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,23; 37,95</t>
+          <t>5,05; 38,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -729,7 +729,7 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,12; 1,73</t>
+          <t>-5,65; 1,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,9; 20,54</t>
+          <t>-42,95; 20,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -789,7 +789,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,97</t>
+          <t>2,83; 6,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -799,7 +799,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,49; 39,24</t>
+          <t>14,41; 38,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">

--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,29; 13,66</t>
+          <t>3,86; 12,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,27; 11,24</t>
+          <t>2,54; 11,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,4; 49,22</t>
+          <t>12,29; 46,89</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,14; 41,23</t>
+          <t>7,48; 41,87</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,85; 5,77</t>
+          <t>0,84; 5,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 2,99</t>
+          <t>-1,53; 2,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,05; 38,67</t>
+          <t>4,68; 38,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 29,44</t>
+          <t>-12,75; 28,08</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,77</t>
+          <t>-5,9; 1,54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; 2,49</t>
+          <t>-3,42; 2,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-42,95; 20,18</t>
+          <t>-46,89; 16,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-30,58; 36,4</t>
+          <t>-32,21; 38,61</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,82</t>
+          <t>2,69; 6,89</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,92</t>
+          <t>1,31; 5,01</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,41; 38,5</t>
+          <t>13,86; 39,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,0; 39,07</t>
+          <t>9,24; 38,87</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -519,7 +519,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con autopercepción de la felicidad &lt;= 6 (Likert 0 a 10)</t>
+          <t>Población con autopercepción de la felicidad menor o igual a 6 (Likert 0 a 10)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -586,7 +586,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>7,12</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -596,7 +596,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>23,82%</t>
+          <t>24,42%</t>
         </is>
       </c>
     </row>
@@ -614,7 +614,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,52</t>
+          <t>2,5; 11,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -624,7 +624,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,48; 41,87</t>
+          <t>7,75; 43,03</t>
         </is>
       </c>
     </row>
@@ -646,7 +646,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,07</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,56%</t>
+          <t>12,66%</t>
         </is>
       </c>
     </row>
@@ -674,7 +674,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 2,95</t>
+          <t>-2,17; 4,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,75; 28,08</t>
+          <t>-18,49; 52,21</t>
         </is>
       </c>
     </row>
@@ -706,7 +706,7 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -716,7 +716,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-5,39%</t>
+          <t>-6,28%</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 2,71</t>
+          <t>-3,48; 2,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-32,21; 38,61</t>
+          <t>-33,03; 38,03</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>23,56%</t>
+          <t>25,95%</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,01</t>
+          <t>0,52; 6,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -804,7 +804,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,24; 38,87</t>
+          <t>4,5; 58,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P57_R-Estudios-trans_bre.xlsx
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,86; 12,89</t>
+          <t>4,58; 13,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 11,47</t>
+          <t>2,48; 11,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,29; 46,89</t>
+          <t>13,84; 48,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7,75; 43,03</t>
+          <t>7,48; 42,54</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,84; 5,76</t>
+          <t>0,92; 5,95</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 4,25</t>
+          <t>-2,06; 4,8</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,68; 38,03</t>
+          <t>5,23; 39,94</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,49; 52,21</t>
+          <t>-17,77; 61,04</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,9; 1,54</t>
+          <t>-6,09; 1,41</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 2,54</t>
+          <t>-3,42; 2,35</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-46,89; 16,05</t>
+          <t>-45,71; 16,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 38,03</t>
+          <t>-32,62; 35,98</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,89</t>
+          <t>2,85; 6,79</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 6,07</t>
+          <t>0,46; 5,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 39,46</t>
+          <t>14,76; 38,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,5; 58,57</t>
+          <t>4,61; 55,4</t>
         </is>
       </c>
     </row>
